--- a/EMOTIONS.xlsx
+++ b/EMOTIONS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deluc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deluc\Desktop\Valerio\magistrale\secondo anno\secondo semestre\Robotics and Design\Robotics-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD99535A-0E23-440C-93B9-7A8FF0BDF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A44747-6AC9-42F7-BBD6-200C6C0C28FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A06D0C59-C28B-4AE4-BAE0-11A7FC59DF45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A06D0C59-C28B-4AE4-BAE0-11A7FC59DF45}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>VERSO ME</t>
   </si>
@@ -122,9 +122,6 @@
     <t>G1</t>
   </si>
   <si>
-    <t>Confermata casa in salina</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
@@ -164,51 +161,6 @@
     <t>GE</t>
   </si>
   <si>
-    <t>Preservativi alla figlia</t>
-  </si>
-  <si>
-    <t>Si rifà le tette</t>
-  </si>
-  <si>
-    <t>Figlia dorme da un'amica</t>
-  </si>
-  <si>
-    <t>Non sai se sei gay</t>
-  </si>
-  <si>
-    <t>Mi mancano i tuoi baci</t>
-  </si>
-  <si>
-    <t>Manda tu madre in ospizio</t>
-  </si>
-  <si>
-    <t>Hai le mutande?</t>
-  </si>
-  <si>
-    <t>App fitness</t>
-  </si>
-  <si>
-    <t>Foto di tipa nuda</t>
-  </si>
-  <si>
-    <t>Ex vuole scopare</t>
-  </si>
-  <si>
-    <t>Mamma fa le lasagne</t>
-  </si>
-  <si>
-    <t>Piaciuti orecchini?</t>
-  </si>
-  <si>
-    <t>Ha messo incinta una</t>
-  </si>
-  <si>
-    <t>QUANDO UN MESSAGGIO VIENE MANDATO AD ALTRI, IGNORO A MENO DI CASI ECCEZIONALI (E.G. MOGLIE ARRAPATA VERSO QUALCUNO)</t>
-  </si>
-  <si>
-    <t>SE SONO INATTIVO DA MOLTO DOVREI FARE UN'EMOZIONE A CASO</t>
-  </si>
-  <si>
     <t>1L</t>
   </si>
   <si>
@@ -249,6 +201,12 @@
   </si>
   <si>
     <t>SE VS PEPPE: 2</t>
+  </si>
+  <si>
+    <t>SE SONO INATTIVO DA MOLTO DOVREI FARE UN'EMOZIONE CASUALE</t>
+  </si>
+  <si>
+    <t>QUANDO UN MESSAGGIO VIENE MANDATO AD ALTRI, IGNORO A MENO DI CASI ECCEZIONALI (E.G. MOGLIE ARRABBIATA VERSO QUALCUNO)</t>
   </si>
 </sst>
 </file>
@@ -614,7 +572,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,37 +665,37 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -745,36 +703,36 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -786,19 +744,13 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -806,10 +758,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -817,10 +766,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -828,10 +774,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -839,10 +782,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -850,10 +790,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -861,10 +798,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -872,10 +806,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -883,10 +814,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -894,10 +822,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -905,10 +830,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -916,10 +838,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -927,10 +846,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
